--- a/Excel файлы/Подключение к бд.xlsx
+++ b/Excel файлы/Подключение к бд.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E7241B-8847-426F-867D-A4D798735284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4D60E-4D0E-429A-BE0E-89268A9378CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1245" windowWidth="18900" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Подключение к базе данных" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel файлы/Подключение к бд.xlsx
+++ b/Excel файлы/Подключение к бд.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS projects\Traffic_Lights\Excel файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4D60E-4D0E-429A-BE0E-89268A9378CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55E4D0-6E52-4D63-9615-0BAA8166AF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="1710" windowWidth="25995" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Подключение к базе данных" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
